--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="145">
   <si>
     <t>owner</t>
   </si>
@@ -100,349 +100,355 @@
     <t>product cx</t>
   </si>
   <si>
-    <t>🟢 1d 9h</t>
-  </si>
-  <si>
-    <t>🔵 5d</t>
-  </si>
-  <si>
-    <t>🟢 2d 17h</t>
-  </si>
-  <si>
-    <t>🟢 12h 36m</t>
-  </si>
-  <si>
-    <t>🟡 7d 11h</t>
-  </si>
-  <si>
-    <t>🟡 9d 11h</t>
-  </si>
-  <si>
-    <t>🟡 9d 6h</t>
-  </si>
-  <si>
-    <t>🔴 18d 2h</t>
-  </si>
-  <si>
-    <t>🟢 15h 20m</t>
-  </si>
-  <si>
-    <t>🔵 3d 9h</t>
-  </si>
-  <si>
-    <t>🔵 5d 12h</t>
-  </si>
-  <si>
-    <t>🔵 3d 19h</t>
-  </si>
-  <si>
-    <t>🟡 9d 18h</t>
-  </si>
-  <si>
-    <t>🟢 5h 46m</t>
-  </si>
-  <si>
-    <t>🟢 7h 14m</t>
-  </si>
-  <si>
-    <t>🟡 2d</t>
-  </si>
-  <si>
-    <t>🟢 3m</t>
-  </si>
-  <si>
-    <t>🟢 15h 30m</t>
+    <t>🔴 14d 7h</t>
+  </si>
+  <si>
+    <t>🟡 9d 12h</t>
+  </si>
+  <si>
+    <t>🔵 5d 10h</t>
+  </si>
+  <si>
+    <t>🟢 3d</t>
+  </si>
+  <si>
+    <t>🟡 9d 8h</t>
+  </si>
+  <si>
+    <t>🟡 7d 1h</t>
+  </si>
+  <si>
+    <t>🟡 9d 14h</t>
+  </si>
+  <si>
+    <t>🟡 11d 9h</t>
+  </si>
+  <si>
+    <t>🟢 1d 22h</t>
+  </si>
+  <si>
+    <t>🔵 6d 6h</t>
+  </si>
+  <si>
+    <t>🔵 6d</t>
+  </si>
+  <si>
+    <t>🔵 6d 5h</t>
+  </si>
+  <si>
+    <t>🔴 12d 20h</t>
+  </si>
+  <si>
+    <t>🟢 9h 36m</t>
+  </si>
+  <si>
+    <t>🟡 1d 23h</t>
+  </si>
+  <si>
+    <t>🟢 9h 2m</t>
+  </si>
+  <si>
+    <t>🟢 3h 24m</t>
+  </si>
+  <si>
+    <t>🟢 5h 38m</t>
   </si>
   <si>
     <t>🔵 1d 9h</t>
   </si>
   <si>
-    <t>🟢 12h 53m</t>
-  </si>
-  <si>
-    <t>🟡 4d 2h</t>
-  </si>
-  <si>
-    <t>🟢 13h 55m</t>
-  </si>
-  <si>
-    <t>🟢 15h 48m</t>
-  </si>
-  <si>
-    <t>🔵 1d 3h</t>
-  </si>
-  <si>
-    <t>🟢 10h 27m</t>
-  </si>
-  <si>
-    <t>🟡 2d 4h</t>
-  </si>
-  <si>
-    <t>🔵 11h 45m</t>
-  </si>
-  <si>
-    <t>🔵 12h 32m</t>
+    <t>🔵 1d 8h</t>
+  </si>
+  <si>
+    <t>🟢 1h 27m</t>
+  </si>
+  <si>
+    <t>🟢 16h 21m</t>
+  </si>
+  <si>
+    <t>🟢 9h 23m</t>
+  </si>
+  <si>
+    <t>🔵 22h 52m</t>
+  </si>
+  <si>
+    <t>🟢 6h 8m</t>
+  </si>
+  <si>
+    <t>🟢 5h 31m</t>
+  </si>
+  <si>
+    <t>🔵 8h 13m</t>
+  </si>
+  <si>
+    <t>🔵 10h 36m</t>
+  </si>
+  <si>
+    <t>🟢 5h 21m</t>
+  </si>
+  <si>
+    <t>🟡 22h 32m</t>
+  </si>
+  <si>
+    <t>🔵 7h 25m</t>
+  </si>
+  <si>
+    <t>🔵 12h 6m</t>
+  </si>
+  <si>
+    <t>🔵 10h 25m</t>
   </si>
   <si>
     <t>🟢 5h 12m</t>
   </si>
   <si>
-    <t>🔵 8h 30m</t>
-  </si>
-  <si>
-    <t>🟢 3h 34m</t>
-  </si>
-  <si>
-    <t>🟢 5h 37m</t>
-  </si>
-  <si>
-    <t>🟡 22h 26m</t>
-  </si>
-  <si>
-    <t>🟢 2h 52m</t>
-  </si>
-  <si>
-    <t>🟢 1h 25m</t>
-  </si>
-  <si>
-    <t>🟢 4h 38m</t>
-  </si>
-  <si>
-    <t>🔵 8h 40m</t>
-  </si>
-  <si>
-    <t>🟢 5h 34m</t>
-  </si>
-  <si>
-    <t>🔵 7h 18m</t>
-  </si>
-  <si>
-    <t>🟡 15h 52m</t>
-  </si>
-  <si>
-    <t>🟡 1d 4h</t>
-  </si>
-  <si>
-    <t>🔵 11h 22m</t>
-  </si>
-  <si>
-    <t>🟢 4h 3m</t>
-  </si>
-  <si>
-    <t>🔵 9h 45m</t>
-  </si>
-  <si>
-    <t>🔵 11h 51m</t>
-  </si>
-  <si>
-    <t>🔵 12h 42m</t>
-  </si>
-  <si>
-    <t>🔵 8h 23m</t>
+    <t>🟢 6h 15m</t>
+  </si>
+  <si>
+    <t>🟢 4h 7m</t>
+  </si>
+  <si>
+    <t>🔵 8h 31m</t>
+  </si>
+  <si>
+    <t>🔵 11h 21m</t>
+  </si>
+  <si>
+    <t>🟢 6h 42m</t>
+  </si>
+  <si>
+    <t>🟡 22h 39m</t>
+  </si>
+  <si>
+    <t>🔴 1d 14h</t>
+  </si>
+  <si>
+    <t>🟡 16h 16m</t>
+  </si>
+  <si>
+    <t>🔴 1d 22h</t>
+  </si>
+  <si>
+    <t>🔴 1d 5h</t>
+  </si>
+  <si>
+    <t>🟡 19h 6m</t>
+  </si>
+  <si>
+    <t>🟡 21h 33m</t>
+  </si>
+  <si>
+    <t>🔵 10h 31m</t>
+  </si>
+  <si>
+    <t>🟡 23h 49m</t>
+  </si>
+  <si>
+    <t>🔵 11h 36m</t>
+  </si>
+  <si>
+    <t>🟡 20h 11m</t>
+  </si>
+  <si>
+    <t>🟡 16h 35m</t>
+  </si>
+  <si>
+    <t>🔴 12d 14h</t>
+  </si>
+  <si>
+    <t>🟡 5d 11h</t>
+  </si>
+  <si>
+    <t>🟡 4d 3h</t>
   </si>
   <si>
     <t>⚪ 0m</t>
   </si>
   <si>
-    <t>🟢 3h 15m</t>
-  </si>
-  <si>
-    <t>🔵 8h 58m</t>
-  </si>
-  <si>
-    <t>🔵 5h 41m</t>
-  </si>
-  <si>
-    <t>🔵 12h 7m</t>
-  </si>
-  <si>
-    <t>🟡 3d</t>
-  </si>
-  <si>
-    <t>🔴 6d 6h</t>
-  </si>
-  <si>
-    <t>🔴 7d 8h</t>
-  </si>
-  <si>
-    <t>🔴 7d 6h</t>
-  </si>
-  <si>
-    <t>🔴 13d 13h</t>
-  </si>
-  <si>
-    <t>🟡 2d 9h</t>
-  </si>
-  <si>
-    <t>🟡 3d 15h</t>
-  </si>
-  <si>
-    <t>🟡 2d 21h</t>
-  </si>
-  <si>
-    <t>🔴 6d 18h</t>
-  </si>
-  <si>
-    <t>🔵 11.17%</t>
-  </si>
-  <si>
-    <t>🔴 28.18%</t>
-  </si>
-  <si>
-    <t>⚪ 0.0%</t>
-  </si>
-  <si>
-    <t>🔴 22.0%</t>
-  </si>
-  <si>
-    <t>🟢 5.64%</t>
-  </si>
-  <si>
-    <t>🟡 19.76%</t>
-  </si>
-  <si>
-    <t>🟢 3.04%</t>
-  </si>
-  <si>
-    <t>🔴 66.36%</t>
-  </si>
-  <si>
-    <t>🔴 37.39%</t>
-  </si>
-  <si>
-    <t>🔴 21.13%</t>
-  </si>
-  <si>
-    <t>🟡 15.05%</t>
-  </si>
-  <si>
-    <t>🟡 16.26%</t>
-  </si>
-  <si>
-    <t>🔴 38.76%</t>
-  </si>
-  <si>
-    <t>🔴 63.78%</t>
-  </si>
-  <si>
-    <t>🟡 5.87%</t>
-  </si>
-  <si>
-    <t>🔴 17.55%</t>
-  </si>
-  <si>
-    <t>🔴 15.24%</t>
-  </si>
-  <si>
-    <t>🔴 8.46%</t>
-  </si>
-  <si>
-    <t>🟡 7.0%</t>
-  </si>
-  <si>
-    <t>🟢 1.2%</t>
-  </si>
-  <si>
-    <t>🔵 2.12%</t>
-  </si>
-  <si>
-    <t>🔴 14.38%</t>
-  </si>
-  <si>
-    <t>🔴 9.99%</t>
-  </si>
-  <si>
-    <t>🔴 10.03%</t>
-  </si>
-  <si>
-    <t>🔴 11.23%</t>
-  </si>
-  <si>
-    <t>🔴 32.96%</t>
-  </si>
-  <si>
-    <t>🟡 5.86%</t>
-  </si>
-  <si>
-    <t>25.05% - 11.17% - 63.78%</t>
-  </si>
-  <si>
-    <t>65.96% - 28.18% - 5.87%</t>
-  </si>
-  <si>
-    <t>82.45% - 0.0% - 17.55%</t>
-  </si>
-  <si>
-    <t>62.76% - 22.0% - 15.24%</t>
-  </si>
-  <si>
-    <t>85.9% - 5.64% - 8.46%</t>
-  </si>
-  <si>
-    <t>73.24% - 19.76% - 7.0%</t>
-  </si>
-  <si>
-    <t>95.76% - 3.04% - 1.2%</t>
-  </si>
-  <si>
-    <t>31.51% - 66.36% - 2.12%</t>
-  </si>
-  <si>
-    <t>48.22% - 37.39% - 14.38%</t>
-  </si>
-  <si>
-    <t>68.87% - 21.13% - 9.99%</t>
-  </si>
-  <si>
-    <t>74.92% - 15.05% - 10.03%</t>
-  </si>
-  <si>
-    <t>72.51% - 16.26% - 11.23%</t>
-  </si>
-  <si>
-    <t>28.28% - 38.76% - 32.96%</t>
-  </si>
-  <si>
-    <t>65.96% - 28.18% - 5.86%</t>
-  </si>
-  <si>
-    <t>25 (23 - 2 - 0)</t>
-  </si>
-  <si>
-    <t>61 (39 - 11 - 11)</t>
-  </si>
-  <si>
-    <t>0 (0 - 0 - 0)</t>
-  </si>
-  <si>
-    <t>46 (42 - 4 - 0)</t>
-  </si>
-  <si>
-    <t>122 (78 - 36 - 8)</t>
-  </si>
-  <si>
-    <t>156 (105 - 44 - 7)</t>
-  </si>
-  <si>
-    <t>39 (32 - 5 - 2)</t>
-  </si>
-  <si>
-    <t>30 (23 - 5 - 2)</t>
-  </si>
-  <si>
-    <t>68 (43 - 18 - 7)</t>
-  </si>
-  <si>
-    <t>68 (45 - 21 - 2)</t>
-  </si>
-  <si>
-    <t>263 (180 - 67 - 16)</t>
-  </si>
-  <si>
-    <t>236 (165 - 61 - 10)</t>
-  </si>
-  <si>
-    <t>55 (46 - 7 - 2)</t>
+    <t>🔴 7d 14h</t>
+  </si>
+  <si>
+    <t>🟡 4d 8h</t>
+  </si>
+  <si>
+    <t>🔴 6d 22h</t>
+  </si>
+  <si>
+    <t>🔴 10d 16h</t>
+  </si>
+  <si>
+    <t>🟡 5d 4h</t>
+  </si>
+  <si>
+    <t>🟡 3d 20h</t>
+  </si>
+  <si>
+    <t>🟡 4d 6h</t>
+  </si>
+  <si>
+    <t>🔴 11d 15h</t>
+  </si>
+  <si>
+    <t>🔵 12.59%</t>
+  </si>
+  <si>
+    <t>🟢 8.28%</t>
+  </si>
+  <si>
+    <t>🟢 4.69%</t>
+  </si>
+  <si>
+    <t>🟡 20.7%</t>
+  </si>
+  <si>
+    <t>🟢 4.27%</t>
+  </si>
+  <si>
+    <t>🔵 14.64%</t>
+  </si>
+  <si>
+    <t>🔵 9.8%</t>
+  </si>
+  <si>
+    <t>🟡 18.85%</t>
+  </si>
+  <si>
+    <t>🟢 4.46%</t>
+  </si>
+  <si>
+    <t>🔵 11.35%</t>
+  </si>
+  <si>
+    <t>🟢 8.4%</t>
+  </si>
+  <si>
+    <t>🔵 12.11%</t>
+  </si>
+  <si>
+    <t>🟡 15.72%</t>
+  </si>
+  <si>
+    <t>🔴 14.86%</t>
+  </si>
+  <si>
+    <t>🟡 6.43%</t>
+  </si>
+  <si>
+    <t>🔵 3.64%</t>
+  </si>
+  <si>
+    <t>🔴 21.67%</t>
+  </si>
+  <si>
+    <t>🟡 6.19%</t>
+  </si>
+  <si>
+    <t>🟡 5.31%</t>
+  </si>
+  <si>
+    <t>🔴 13.17%</t>
+  </si>
+  <si>
+    <t>🔴 7.04%</t>
+  </si>
+  <si>
+    <t>🔵 2.82%</t>
+  </si>
+  <si>
+    <t>🔴 9.88%</t>
+  </si>
+  <si>
+    <t>🟡 6.23%</t>
+  </si>
+  <si>
+    <t>🔴 12.58%</t>
+  </si>
+  <si>
+    <t>🔴 10.96%</t>
+  </si>
+  <si>
+    <t>🟡 6.44%</t>
+  </si>
+  <si>
+    <t>72.54% - 12.59% - 14.86%</t>
+  </si>
+  <si>
+    <t>85.28% - 8.28% - 6.43%</t>
+  </si>
+  <si>
+    <t>91.67% - 4.69% - 3.64%</t>
+  </si>
+  <si>
+    <t>57.63% - 20.7% - 21.67%</t>
+  </si>
+  <si>
+    <t>89.54% - 4.27% - 6.19%</t>
+  </si>
+  <si>
+    <t>80.06% - 14.64% - 5.31%</t>
+  </si>
+  <si>
+    <t>77.03% - 9.8% - 13.17%</t>
+  </si>
+  <si>
+    <t>74.11% - 18.85% - 7.04%</t>
+  </si>
+  <si>
+    <t>92.72% - 4.46% - 2.82%</t>
+  </si>
+  <si>
+    <t>78.77% - 11.35% - 9.88%</t>
+  </si>
+  <si>
+    <t>85.37% - 8.4% - 6.23%</t>
+  </si>
+  <si>
+    <t>75.31% - 12.11% - 12.58%</t>
+  </si>
+  <si>
+    <t>73.32% - 15.72% - 10.96%</t>
+  </si>
+  <si>
+    <t>85.28% - 8.28% - 6.44%</t>
+  </si>
+  <si>
+    <t>28 (4 - 23 - 1)</t>
+  </si>
+  <si>
+    <t>31 (15 - 8 - 8)</t>
+  </si>
+  <si>
+    <t>40 (21 - 13 - 6)</t>
+  </si>
+  <si>
+    <t>22 (18 - 2 - 2)</t>
+  </si>
+  <si>
+    <t>53 (32 - 16 - 5)</t>
+  </si>
+  <si>
+    <t>85 (51 - 22 - 12)</t>
+  </si>
+  <si>
+    <t>100 (71 - 21 - 8)</t>
+  </si>
+  <si>
+    <t>76 (55 - 16 - 5)</t>
+  </si>
+  <si>
+    <t>93 (66 - 19 - 8)</t>
+  </si>
+  <si>
+    <t>61 (40 - 18 - 3)</t>
+  </si>
+  <si>
+    <t>318 (209 - 75 - 34)</t>
+  </si>
+  <si>
+    <t>136 (90 - 36 - 10)</t>
+  </si>
+  <si>
+    <t>104 (59 - 39 - 6)</t>
   </si>
 </sst>
 </file>
@@ -870,22 +876,22 @@
         <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -920,28 +926,28 @@
         <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
         <v>3</v>
-      </c>
-      <c r="O3">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -964,28 +970,28 @@
         <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1011,25 +1017,25 @@
         <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1058,31 +1064,31 @@
         <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1105,31 +1111,31 @@
         <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1152,28 +1158,28 @@
         <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1199,19 +1205,19 @@
         <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1246,31 +1252,31 @@
         <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1293,28 +1299,28 @@
         <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O11">
         <v>5</v>
@@ -1340,31 +1346,31 @@
         <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="N12">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1384,34 +1390,34 @@
         <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1431,25 +1437,25 @@
         <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1484,28 +1490,28 @@
         <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
         <v>3</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="143">
   <si>
     <t>owner</t>
   </si>
@@ -100,355 +100,349 @@
     <t>product cx</t>
   </si>
   <si>
-    <t>🔴 14d 7h</t>
-  </si>
-  <si>
-    <t>🟡 9d 12h</t>
-  </si>
-  <si>
-    <t>🔵 5d 10h</t>
-  </si>
-  <si>
-    <t>🟢 3d</t>
-  </si>
-  <si>
-    <t>🟡 9d 8h</t>
-  </si>
-  <si>
-    <t>🟡 7d 1h</t>
-  </si>
-  <si>
-    <t>🟡 9d 14h</t>
-  </si>
-  <si>
-    <t>🟡 11d 9h</t>
-  </si>
-  <si>
-    <t>🟢 1d 22h</t>
+    <t>🟡 10d 15h</t>
+  </si>
+  <si>
+    <t>🟡 12d 4h</t>
+  </si>
+  <si>
+    <t>🟡 9d 4h</t>
+  </si>
+  <si>
+    <t>🔴 13d 18h</t>
+  </si>
+  <si>
+    <t>🟡 8d</t>
   </si>
   <si>
     <t>🔵 6d 6h</t>
   </si>
   <si>
-    <t>🔵 6d</t>
-  </si>
-  <si>
-    <t>🔵 6d 5h</t>
-  </si>
-  <si>
-    <t>🔴 12d 20h</t>
-  </si>
-  <si>
-    <t>🟢 9h 36m</t>
-  </si>
-  <si>
-    <t>🟡 1d 23h</t>
-  </si>
-  <si>
-    <t>🟢 9h 2m</t>
-  </si>
-  <si>
-    <t>🟢 3h 24m</t>
-  </si>
-  <si>
-    <t>🟢 5h 38m</t>
-  </si>
-  <si>
-    <t>🔵 1d 9h</t>
-  </si>
-  <si>
-    <t>🔵 1d 8h</t>
-  </si>
-  <si>
-    <t>🟢 1h 27m</t>
-  </si>
-  <si>
-    <t>🟢 16h 21m</t>
-  </si>
-  <si>
-    <t>🟢 9h 23m</t>
-  </si>
-  <si>
-    <t>🔵 22h 52m</t>
-  </si>
-  <si>
-    <t>🟢 6h 8m</t>
-  </si>
-  <si>
-    <t>🟢 5h 31m</t>
-  </si>
-  <si>
-    <t>🔵 8h 13m</t>
-  </si>
-  <si>
-    <t>🔵 10h 36m</t>
-  </si>
-  <si>
-    <t>🟢 5h 21m</t>
-  </si>
-  <si>
-    <t>🟡 22h 32m</t>
-  </si>
-  <si>
-    <t>🔵 7h 25m</t>
-  </si>
-  <si>
-    <t>🔵 12h 6m</t>
-  </si>
-  <si>
-    <t>🔵 10h 25m</t>
-  </si>
-  <si>
-    <t>🟢 5h 12m</t>
-  </si>
-  <si>
-    <t>🟢 6h 15m</t>
-  </si>
-  <si>
-    <t>🟢 4h 7m</t>
-  </si>
-  <si>
-    <t>🔵 8h 31m</t>
-  </si>
-  <si>
-    <t>🔵 11h 21m</t>
-  </si>
-  <si>
-    <t>🟢 6h 42m</t>
-  </si>
-  <si>
-    <t>🟡 22h 39m</t>
-  </si>
-  <si>
-    <t>🔴 1d 14h</t>
-  </si>
-  <si>
-    <t>🟡 16h 16m</t>
-  </si>
-  <si>
-    <t>🔴 1d 22h</t>
-  </si>
-  <si>
-    <t>🔴 1d 5h</t>
-  </si>
-  <si>
-    <t>🟡 19h 6m</t>
-  </si>
-  <si>
-    <t>🟡 21h 33m</t>
-  </si>
-  <si>
-    <t>🔵 10h 31m</t>
-  </si>
-  <si>
-    <t>🟡 23h 49m</t>
-  </si>
-  <si>
-    <t>🔵 11h 36m</t>
-  </si>
-  <si>
-    <t>🟡 20h 11m</t>
-  </si>
-  <si>
-    <t>🟡 16h 35m</t>
-  </si>
-  <si>
-    <t>🔴 12d 14h</t>
-  </si>
-  <si>
-    <t>🟡 5d 11h</t>
-  </si>
-  <si>
-    <t>🟡 4d 3h</t>
-  </si>
-  <si>
-    <t>⚪ 0m</t>
-  </si>
-  <si>
-    <t>🔴 7d 14h</t>
-  </si>
-  <si>
-    <t>🟡 4d 8h</t>
-  </si>
-  <si>
-    <t>🔴 6d 22h</t>
-  </si>
-  <si>
-    <t>🔴 10d 16h</t>
-  </si>
-  <si>
-    <t>🟡 5d 4h</t>
-  </si>
-  <si>
-    <t>🟡 3d 20h</t>
-  </si>
-  <si>
-    <t>🟡 4d 6h</t>
+    <t>🔴 13d 7h</t>
+  </si>
+  <si>
+    <t>🔴 13d 10h</t>
+  </si>
+  <si>
+    <t>🔴 13d 9h</t>
+  </si>
+  <si>
+    <t>🔵 4d 7h</t>
+  </si>
+  <si>
+    <t>🟡 10d 13h</t>
+  </si>
+  <si>
+    <t>🟡 8d 16h</t>
+  </si>
+  <si>
+    <t>🟡 12d 1h</t>
+  </si>
+  <si>
+    <t>🔵 1d 15h</t>
+  </si>
+  <si>
+    <t>🟡 2d 8h</t>
+  </si>
+  <si>
+    <t>🟢 14h 30m</t>
+  </si>
+  <si>
+    <t>🔵 1d 6h</t>
+  </si>
+  <si>
+    <t>🟢 6h 57m</t>
+  </si>
+  <si>
+    <t>🟡 2d 1h</t>
+  </si>
+  <si>
+    <t>🟢 7h 47m</t>
+  </si>
+  <si>
+    <t>🟢 11h 58m</t>
+  </si>
+  <si>
+    <t>🟢 17h 44m</t>
+  </si>
+  <si>
+    <t>🔵 1d 14h</t>
+  </si>
+  <si>
+    <t>🔵 22h 19m</t>
+  </si>
+  <si>
+    <t>🔵 1d 1h</t>
+  </si>
+  <si>
+    <t>🔵 11h 9m</t>
+  </si>
+  <si>
+    <t>🔴 1d 8h</t>
+  </si>
+  <si>
+    <t>🟢 3h 13m</t>
+  </si>
+  <si>
+    <t>🟡 15h 17m</t>
+  </si>
+  <si>
+    <t>🔵 10h 8m</t>
+  </si>
+  <si>
+    <t>🔴 1d 2h</t>
+  </si>
+  <si>
+    <t>🔵 12h 5m</t>
+  </si>
+  <si>
+    <t>🟡 14h 16m</t>
+  </si>
+  <si>
+    <t>🔵 7h 26m</t>
+  </si>
+  <si>
+    <t>🟡 13h 44m</t>
+  </si>
+  <si>
+    <t>🔵 10h 57m</t>
+  </si>
+  <si>
+    <t>🔵 11h 37m</t>
+  </si>
+  <si>
+    <t>🟡 14h 54m</t>
+  </si>
+  <si>
+    <t>🟡 1d</t>
+  </si>
+  <si>
+    <t>🔵 6h 9m</t>
+  </si>
+  <si>
+    <t>🔴 2d 1h</t>
+  </si>
+  <si>
+    <t>🔴 2d 10h</t>
+  </si>
+  <si>
+    <t>🟡 22h 50m</t>
+  </si>
+  <si>
+    <t>🔴 1d 13h</t>
+  </si>
+  <si>
+    <t>🟢 4h 19m</t>
+  </si>
+  <si>
+    <t>🔵 9h 56m</t>
+  </si>
+  <si>
+    <t>🔵 9h 24m</t>
+  </si>
+  <si>
+    <t>🟡 19h 7m</t>
+  </si>
+  <si>
+    <t>🔴 1d 15h</t>
+  </si>
+  <si>
+    <t>🔵 9h 36m</t>
+  </si>
+  <si>
+    <t>🔴 7d 21h</t>
+  </si>
+  <si>
+    <t>🔴 7d 11h</t>
+  </si>
+  <si>
+    <t>🔴 8d 4h</t>
+  </si>
+  <si>
+    <t>🔴 9d 19h</t>
+  </si>
+  <si>
+    <t>🟡 4d 21h</t>
+  </si>
+  <si>
+    <t>🟡 2d 19h</t>
+  </si>
+  <si>
+    <t>🔴 10d 7h</t>
+  </si>
+  <si>
+    <t>🔴 12d 6h</t>
   </si>
   <si>
     <t>🔴 11d 15h</t>
   </si>
   <si>
-    <t>🔵 12.59%</t>
-  </si>
-  <si>
-    <t>🟢 8.28%</t>
-  </si>
-  <si>
-    <t>🟢 4.69%</t>
-  </si>
-  <si>
-    <t>🟡 20.7%</t>
-  </si>
-  <si>
-    <t>🟢 4.27%</t>
-  </si>
-  <si>
-    <t>🔵 14.64%</t>
-  </si>
-  <si>
-    <t>🔵 9.8%</t>
-  </si>
-  <si>
-    <t>🟡 18.85%</t>
-  </si>
-  <si>
-    <t>🟢 4.46%</t>
-  </si>
-  <si>
-    <t>🔵 11.35%</t>
-  </si>
-  <si>
-    <t>🟢 8.4%</t>
-  </si>
-  <si>
-    <t>🔵 12.11%</t>
-  </si>
-  <si>
-    <t>🟡 15.72%</t>
-  </si>
-  <si>
-    <t>🔴 14.86%</t>
-  </si>
-  <si>
-    <t>🟡 6.43%</t>
-  </si>
-  <si>
-    <t>🔵 3.64%</t>
-  </si>
-  <si>
-    <t>🔴 21.67%</t>
-  </si>
-  <si>
-    <t>🟡 6.19%</t>
-  </si>
-  <si>
-    <t>🟡 5.31%</t>
-  </si>
-  <si>
-    <t>🔴 13.17%</t>
-  </si>
-  <si>
-    <t>🔴 7.04%</t>
-  </si>
-  <si>
-    <t>🔵 2.82%</t>
-  </si>
-  <si>
-    <t>🔴 9.88%</t>
-  </si>
-  <si>
-    <t>🟡 6.23%</t>
-  </si>
-  <si>
-    <t>🔴 12.58%</t>
-  </si>
-  <si>
-    <t>🔴 10.96%</t>
-  </si>
-  <si>
-    <t>🟡 6.44%</t>
-  </si>
-  <si>
-    <t>72.54% - 12.59% - 14.86%</t>
-  </si>
-  <si>
-    <t>85.28% - 8.28% - 6.43%</t>
-  </si>
-  <si>
-    <t>91.67% - 4.69% - 3.64%</t>
-  </si>
-  <si>
-    <t>57.63% - 20.7% - 21.67%</t>
-  </si>
-  <si>
-    <t>89.54% - 4.27% - 6.19%</t>
-  </si>
-  <si>
-    <t>80.06% - 14.64% - 5.31%</t>
-  </si>
-  <si>
-    <t>77.03% - 9.8% - 13.17%</t>
-  </si>
-  <si>
-    <t>74.11% - 18.85% - 7.04%</t>
-  </si>
-  <si>
-    <t>92.72% - 4.46% - 2.82%</t>
-  </si>
-  <si>
-    <t>78.77% - 11.35% - 9.88%</t>
-  </si>
-  <si>
-    <t>85.37% - 8.4% - 6.23%</t>
-  </si>
-  <si>
-    <t>75.31% - 12.11% - 12.58%</t>
-  </si>
-  <si>
-    <t>73.32% - 15.72% - 10.96%</t>
-  </si>
-  <si>
-    <t>85.28% - 8.28% - 6.44%</t>
-  </si>
-  <si>
-    <t>28 (4 - 23 - 1)</t>
-  </si>
-  <si>
-    <t>31 (15 - 8 - 8)</t>
-  </si>
-  <si>
-    <t>40 (21 - 13 - 6)</t>
-  </si>
-  <si>
-    <t>22 (18 - 2 - 2)</t>
-  </si>
-  <si>
-    <t>53 (32 - 16 - 5)</t>
-  </si>
-  <si>
-    <t>85 (51 - 22 - 12)</t>
-  </si>
-  <si>
-    <t>100 (71 - 21 - 8)</t>
-  </si>
-  <si>
-    <t>76 (55 - 16 - 5)</t>
-  </si>
-  <si>
-    <t>93 (66 - 19 - 8)</t>
-  </si>
-  <si>
-    <t>61 (40 - 18 - 3)</t>
-  </si>
-  <si>
-    <t>318 (209 - 75 - 34)</t>
-  </si>
-  <si>
-    <t>136 (90 - 36 - 10)</t>
-  </si>
-  <si>
-    <t>104 (59 - 39 - 6)</t>
+    <t>🔵 2d</t>
+  </si>
+  <si>
+    <t>🔴 8d 5h</t>
+  </si>
+  <si>
+    <t>🟡 5d 13h</t>
+  </si>
+  <si>
+    <t>🔴 10d 2h</t>
+  </si>
+  <si>
+    <t>🔴 27.71%</t>
+  </si>
+  <si>
+    <t>🟢 3.52%</t>
+  </si>
+  <si>
+    <t>🟢 6.42%</t>
+  </si>
+  <si>
+    <t>🟢 3.95%</t>
+  </si>
+  <si>
+    <t>🔵 9.15%</t>
+  </si>
+  <si>
+    <t>🟢 2.43%</t>
+  </si>
+  <si>
+    <t>🟡 17.03%</t>
+  </si>
+  <si>
+    <t>🔵 9.03%</t>
+  </si>
+  <si>
+    <t>🟢 7.15%</t>
+  </si>
+  <si>
+    <t>🔵 10.82%</t>
+  </si>
+  <si>
+    <t>🟢 8.26%</t>
+  </si>
+  <si>
+    <t>🟢 7.97%</t>
+  </si>
+  <si>
+    <t>🟡 18.37%</t>
+  </si>
+  <si>
+    <t>🔴 9.69%</t>
+  </si>
+  <si>
+    <t>🔴 24.93%</t>
+  </si>
+  <si>
+    <t>🔵 4.28%</t>
+  </si>
+  <si>
+    <t>🔴 9.57%</t>
+  </si>
+  <si>
+    <t>🔵 3.92%</t>
+  </si>
+  <si>
+    <t>🟢 1.84%</t>
+  </si>
+  <si>
+    <t>🔴 7.15%</t>
+  </si>
+  <si>
+    <t>🟡 5.67%</t>
+  </si>
+  <si>
+    <t>🔴 12.95%</t>
+  </si>
+  <si>
+    <t>🔴 9.38%</t>
+  </si>
+  <si>
+    <t>🟡 6.55%</t>
+  </si>
+  <si>
+    <t>🔴 7.62%</t>
+  </si>
+  <si>
+    <t>🔴 7.67%</t>
+  </si>
+  <si>
+    <t>62.61% - 27.71% - 9.69%</t>
+  </si>
+  <si>
+    <t>71.55% - 3.52% - 24.93%</t>
+  </si>
+  <si>
+    <t>89.3% - 6.42% - 4.28%</t>
+  </si>
+  <si>
+    <t>86.48% - 3.95% - 9.57%</t>
+  </si>
+  <si>
+    <t>86.94% - 9.15% - 3.92%</t>
+  </si>
+  <si>
+    <t>95.73% - 2.43% - 1.84%</t>
+  </si>
+  <si>
+    <t>75.82% - 17.03% - 7.15%</t>
+  </si>
+  <si>
+    <t>85.31% - 9.03% - 5.67%</t>
+  </si>
+  <si>
+    <t>79.9% - 7.15% - 12.95%</t>
+  </si>
+  <si>
+    <t>79.81% - 10.82% - 9.38%</t>
+  </si>
+  <si>
+    <t>85.19% - 8.26% - 6.55%</t>
+  </si>
+  <si>
+    <t>84.41% - 7.97% - 7.62%</t>
+  </si>
+  <si>
+    <t>73.96% - 18.37% - 7.67%</t>
+  </si>
+  <si>
+    <t>75 (27 - 39 - 9)</t>
+  </si>
+  <si>
+    <t>30 (18 - 6 - 6)</t>
+  </si>
+  <si>
+    <t>42 (14 - 17 - 11)</t>
+  </si>
+  <si>
+    <t>25 (17 - 6 - 2)</t>
+  </si>
+  <si>
+    <t>80 (47 - 24 - 9)</t>
+  </si>
+  <si>
+    <t>54 (44 - 8 - 2)</t>
+  </si>
+  <si>
+    <t>68 (51 - 11 - 6)</t>
+  </si>
+  <si>
+    <t>76 (65 - 10 - 1)</t>
+  </si>
+  <si>
+    <t>93 (71 - 16 - 6)</t>
+  </si>
+  <si>
+    <t>3 (3 - 0 - 0)</t>
+  </si>
+  <si>
+    <t>257 (180 - 52 - 25)</t>
+  </si>
+  <si>
+    <t>108 (67 - 30 - 11)</t>
+  </si>
+  <si>
+    <t>151 (92 - 49 - 10)</t>
   </si>
 </sst>
 </file>
@@ -870,13 +864,13 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
         <v>91</v>
@@ -885,10 +879,10 @@
         <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -900,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -917,13 +911,13 @@
         <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
         <v>92</v>
@@ -932,22 +926,22 @@
         <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -964,13 +958,13 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
         <v>93</v>
@@ -979,19 +973,19 @@
         <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L4">
         <v>5</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1011,13 +1005,13 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
         <v>94</v>
@@ -1026,16 +1020,16 @@
         <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1058,13 +1052,13 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
         <v>95</v>
@@ -1073,22 +1067,22 @@
         <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1105,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
         <v>96</v>
@@ -1120,22 +1114,22 @@
         <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1152,13 +1146,13 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
         <v>97</v>
@@ -1167,13 +1161,13 @@
         <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1199,13 +1193,13 @@
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
         <v>98</v>
@@ -1214,10 +1208,10 @@
         <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1246,13 +1240,13 @@
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
         <v>99</v>
@@ -1261,22 +1255,22 @@
         <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1293,10 +1287,10 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
         <v>87</v>
@@ -1308,22 +1302,22 @@
         <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1340,10 +1334,10 @@
         <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
         <v>88</v>
@@ -1355,22 +1349,22 @@
         <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N12">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1387,10 +1381,10 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
         <v>89</v>
@@ -1402,22 +1396,22 @@
         <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N13">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="O13">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1431,13 +1425,13 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
         <v>90</v>
@@ -1449,10 +1443,10 @@
         <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1464,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1481,37 +1475,37 @@
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
         <v>92</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s">
         <v>131</v>
       </c>
-      <c r="K15" t="s">
-        <v>133</v>
-      </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
